--- a/Code/Results/Cases/Case_3_138/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_138/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.761522397045269</v>
+        <v>1.255343993491408</v>
       </c>
       <c r="C2">
-        <v>0.5229721257807398</v>
+        <v>0.2792743365243666</v>
       </c>
       <c r="D2">
-        <v>0.01983550922877164</v>
+        <v>0.03037062535724289</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.049761327425045</v>
+        <v>1.086207185264144</v>
       </c>
       <c r="G2">
-        <v>1.00071428466461</v>
+        <v>0.9535733052840811</v>
       </c>
       <c r="H2">
-        <v>0.6066347940029715</v>
+        <v>0.9431533495270514</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1698592440708921</v>
+        <v>0.2556585119273294</v>
       </c>
       <c r="M2">
-        <v>0.453677936885228</v>
+        <v>0.2832470116721026</v>
       </c>
       <c r="N2">
-        <v>0.7322193118427904</v>
+        <v>1.505909118248321</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.394304304573382</v>
+        <v>1.156498875534112</v>
       </c>
       <c r="C3">
-        <v>0.470557948911221</v>
+        <v>0.2622586660347963</v>
       </c>
       <c r="D3">
-        <v>0.02010891927506542</v>
+        <v>0.03040761311481965</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9517527008600979</v>
+        <v>1.069595557748599</v>
       </c>
       <c r="G3">
-        <v>0.9048811219634416</v>
+        <v>0.9368146487658606</v>
       </c>
       <c r="H3">
-        <v>0.5697487308379294</v>
+        <v>0.9409780274821742</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1568424534121817</v>
+        <v>0.2538986823195444</v>
       </c>
       <c r="M3">
-        <v>0.3958918078283133</v>
+        <v>0.2687290893721581</v>
       </c>
       <c r="N3">
-        <v>0.7823177674978323</v>
+        <v>1.525592623028956</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.170764081967377</v>
+        <v>1.096294837006042</v>
       </c>
       <c r="C4">
-        <v>0.4384267804352078</v>
+        <v>0.2517087979723271</v>
       </c>
       <c r="D4">
-        <v>0.02028642442399509</v>
+        <v>0.03043435331789723</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8937765940352875</v>
+        <v>1.060163038330217</v>
       </c>
       <c r="G4">
-        <v>0.8483273412406618</v>
+        <v>0.9272567906128018</v>
       </c>
       <c r="H4">
-        <v>0.5483898838354406</v>
+        <v>0.9401913594203108</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.149097114915385</v>
+        <v>0.2529435610165365</v>
       </c>
       <c r="M4">
-        <v>0.3608184593293018</v>
+        <v>0.2599543572554595</v>
       </c>
       <c r="N4">
-        <v>0.8144364858118118</v>
+        <v>1.538279445516712</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.080085917513316</v>
+        <v>1.071884028447982</v>
       </c>
       <c r="C5">
-        <v>0.425337631394882</v>
+        <v>0.2473839451689344</v>
       </c>
       <c r="D5">
-        <v>0.02036109382127016</v>
+        <v>0.0304462682179949</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8706587879724879</v>
+        <v>1.056511545755995</v>
       </c>
       <c r="G5">
-        <v>0.8258078525297492</v>
+        <v>0.9235452452521855</v>
       </c>
       <c r="H5">
-        <v>0.5399876477664378</v>
+        <v>0.9400086318976122</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1459987175043764</v>
+        <v>0.2525858957110145</v>
       </c>
       <c r="M5">
-        <v>0.3466162084278679</v>
+        <v>0.2564136629528591</v>
       </c>
       <c r="N5">
-        <v>0.8278552485286874</v>
+        <v>1.543600416714283</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.065052067734996</v>
+        <v>1.067838059809617</v>
       </c>
       <c r="C6">
-        <v>0.4231642312062149</v>
+        <v>0.2466642546530124</v>
       </c>
       <c r="D6">
-        <v>0.0203736313346834</v>
+        <v>0.03044830830861045</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8668494916161649</v>
+        <v>1.055916818653714</v>
       </c>
       <c r="G6">
-        <v>0.8220989507297105</v>
+        <v>0.9229399996122254</v>
       </c>
       <c r="H6">
-        <v>0.5386100513386367</v>
+        <v>0.93998660985595</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1454876088667518</v>
+        <v>0.2525284119600784</v>
       </c>
       <c r="M6">
-        <v>0.3442630591786653</v>
+        <v>0.2558278534846963</v>
       </c>
       <c r="N6">
-        <v>0.8301030441345394</v>
+        <v>1.544493074733689</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.169539567880349</v>
+        <v>1.095965126584417</v>
       </c>
       <c r="C7">
-        <v>0.4382502477143646</v>
+        <v>0.2516505755360754</v>
       </c>
       <c r="D7">
-        <v>0.02028742209370371</v>
+        <v>0.03043450987835072</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.893462820870738</v>
+        <v>1.060113015002273</v>
       </c>
       <c r="G7">
-        <v>0.8480215653378451</v>
+        <v>0.9272059939460036</v>
       </c>
       <c r="H7">
-        <v>0.5482753756344181</v>
+        <v>0.9401883372312057</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1490550998401616</v>
+        <v>0.2529386096322312</v>
       </c>
       <c r="M7">
-        <v>0.3606265720556365</v>
+        <v>0.2599064641151472</v>
       </c>
       <c r="N7">
-        <v>0.8146161337565943</v>
+        <v>1.538350594862729</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.634460761469484</v>
+        <v>1.221161209747265</v>
       </c>
       <c r="C8">
-        <v>0.5048838277997731</v>
+        <v>0.2734285338881079</v>
       </c>
       <c r="D8">
-        <v>0.01992772554514488</v>
+        <v>0.0303825452009292</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.015482558431572</v>
+        <v>1.08031994446803</v>
       </c>
       <c r="G8">
-        <v>0.96716573295096</v>
+        <v>0.9476425505016977</v>
       </c>
       <c r="H8">
-        <v>0.5936348261510176</v>
+        <v>0.942289230773099</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1653171551119996</v>
+        <v>0.255025699867538</v>
       </c>
       <c r="M8">
-        <v>0.4336611609921164</v>
+        <v>0.2782123349818235</v>
       </c>
       <c r="N8">
-        <v>0.7492043225113028</v>
+        <v>1.512571146017941</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.564952022713555</v>
+        <v>1.470537372940953</v>
       </c>
       <c r="C9">
-        <v>0.636375098405324</v>
+        <v>0.3153263499823424</v>
       </c>
       <c r="D9">
-        <v>0.01930347955441647</v>
+        <v>0.03031241879390834</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.274462573639994</v>
+        <v>1.126060883041248</v>
       </c>
       <c r="G9">
-        <v>1.221343532813734</v>
+        <v>0.9935625832988535</v>
       </c>
       <c r="H9">
-        <v>0.693916431343041</v>
+        <v>0.9507757432033372</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1993732163630426</v>
+        <v>0.2601134825331357</v>
       </c>
       <c r="M9">
-        <v>0.5807090544768769</v>
+        <v>0.3152158999925376</v>
       </c>
       <c r="N9">
-        <v>0.6322564564980357</v>
+        <v>1.466793162016196</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.265304109146427</v>
+        <v>1.656133259617434</v>
       </c>
       <c r="C10">
-        <v>0.7341260547480317</v>
+        <v>0.3456212717600806</v>
       </c>
       <c r="D10">
-        <v>0.01890222050570145</v>
+        <v>0.03028002392071727</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.480131623136486</v>
+        <v>1.163439847176505</v>
       </c>
       <c r="G10">
-        <v>1.424222839668261</v>
+        <v>1.030917199432707</v>
       </c>
       <c r="H10">
-        <v>0.7761743628295505</v>
+        <v>0.9596899312896596</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.226027053903195</v>
+        <v>0.2644586739366872</v>
       </c>
       <c r="M10">
-        <v>0.6919842460136323</v>
+        <v>0.3430802309991634</v>
       </c>
       <c r="N10">
-        <v>0.554062856633788</v>
+        <v>1.436078705242718</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.588847275310457</v>
+        <v>1.741088333008918</v>
       </c>
       <c r="C11">
-        <v>0.7790049427874806</v>
+        <v>0.359298759115859</v>
       </c>
       <c r="D11">
-        <v>0.01873436284153129</v>
+        <v>0.0302693924154589</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.577875634274378</v>
+        <v>1.181273884209745</v>
       </c>
       <c r="G11">
-        <v>1.520915395262023</v>
+        <v>1.048708303464139</v>
       </c>
       <c r="H11">
-        <v>0.8158727882077983</v>
+        <v>0.9643308532807282</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.238583691250696</v>
+        <v>0.2665674574186596</v>
       </c>
       <c r="M11">
-        <v>0.7435332139606459</v>
+        <v>0.3559046344989483</v>
       </c>
       <c r="N11">
-        <v>0.5203723417326733</v>
+        <v>1.422741283040908</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.712196150608463</v>
+        <v>1.773334386584565</v>
       </c>
       <c r="C12">
-        <v>0.7960734968634426</v>
+        <v>0.3644631866777104</v>
       </c>
       <c r="D12">
-        <v>0.01867313877947652</v>
+        <v>0.03026595309036395</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.615567817122098</v>
+        <v>1.188147259696436</v>
       </c>
       <c r="G12">
-        <v>1.558246142473592</v>
+        <v>1.055561007239646</v>
       </c>
       <c r="H12">
-        <v>0.8312716288223214</v>
+        <v>0.9661727660405859</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2434076450168448</v>
+        <v>0.2673850006329275</v>
       </c>
       <c r="M12">
-        <v>0.7632076206158089</v>
+        <v>0.3607823112222661</v>
       </c>
       <c r="N12">
-        <v>0.507904132861805</v>
+        <v>1.417782208430914</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.685591831814747</v>
+        <v>1.766386272892476</v>
       </c>
       <c r="C13">
-        <v>0.7923939402004123</v>
+        <v>0.3633515994147558</v>
       </c>
       <c r="D13">
-        <v>0.01868621633008161</v>
+        <v>0.03026666777865827</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.607418639790268</v>
+        <v>1.186661607524371</v>
       </c>
       <c r="G13">
-        <v>1.550173080213</v>
+        <v>1.054080000739106</v>
       </c>
       <c r="H13">
-        <v>0.8279382892468448</v>
+        <v>0.9657723150494064</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2423655325098224</v>
+        <v>0.2672080834915249</v>
       </c>
       <c r="M13">
-        <v>0.7589631942867499</v>
+        <v>0.3597308672005752</v>
       </c>
       <c r="N13">
-        <v>0.5105761744509287</v>
+        <v>1.418846159672348</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.598977904670278</v>
+        <v>1.743739725633361</v>
       </c>
       <c r="C14">
-        <v>0.7804076120077923</v>
+        <v>0.3597239391546339</v>
       </c>
       <c r="D14">
-        <v>0.01872927755016462</v>
+        <v>0.03026909772473374</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.580962523409127</v>
+        <v>1.181836952053146</v>
       </c>
       <c r="G14">
-        <v>1.523971779490012</v>
+        <v>1.049269758137029</v>
       </c>
       <c r="H14">
-        <v>0.8171320941323756</v>
+        <v>0.9644806936373982</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2389791352580914</v>
+        <v>0.2666343365932846</v>
       </c>
       <c r="M14">
-        <v>0.7451486308288295</v>
+        <v>0.3563054961722116</v>
       </c>
       <c r="N14">
-        <v>0.5193406522072257</v>
+        <v>1.422331461425853</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.546036192037661</v>
+        <v>1.729877873248427</v>
       </c>
       <c r="C15">
-        <v>0.7730757272322251</v>
+        <v>0.3574999465772919</v>
       </c>
       <c r="D15">
-        <v>0.01875596600315177</v>
+        <v>0.0302706624221436</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.564848183386403</v>
+        <v>1.178897359430792</v>
       </c>
       <c r="G15">
-        <v>1.508018476088239</v>
+        <v>1.046338423952506</v>
       </c>
       <c r="H15">
-        <v>0.8105618392536371</v>
+        <v>0.9637005498200324</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2369140760624617</v>
+        <v>0.2662853732300903</v>
       </c>
       <c r="M15">
-        <v>0.7367074946236585</v>
+        <v>0.3542101371746895</v>
       </c>
       <c r="N15">
-        <v>0.5247474749411483</v>
+        <v>1.424478234999494</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.244269252346896</v>
+        <v>1.650591815103837</v>
       </c>
       <c r="C16">
-        <v>0.7312026166807186</v>
+        <v>0.3447253256847205</v>
       </c>
       <c r="D16">
-        <v>0.01891350448459406</v>
+        <v>0.0302808009972253</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.473834426202515</v>
+        <v>1.162291110190083</v>
       </c>
       <c r="G16">
-        <v>1.417999187868872</v>
+        <v>1.029770641455116</v>
       </c>
       <c r="H16">
-        <v>0.773629014525568</v>
+        <v>0.9593984460956335</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2252157143690994</v>
+        <v>0.2643235181509596</v>
       </c>
       <c r="M16">
-        <v>0.688635790367087</v>
+        <v>0.342245116364829</v>
       </c>
       <c r="N16">
-        <v>0.5563040514041289</v>
+        <v>1.436963130368402</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.060493294365301</v>
+        <v>1.602087031405688</v>
       </c>
       <c r="C17">
-        <v>0.7056301971921926</v>
+        <v>0.3368619100044157</v>
       </c>
       <c r="D17">
-        <v>0.01901405982504301</v>
+        <v>0.03028806939443385</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.419124519038448</v>
+        <v>1.152316789738123</v>
       </c>
       <c r="G17">
-        <v>1.363958774105583</v>
+        <v>1.019811878610284</v>
       </c>
       <c r="H17">
-        <v>0.7515816115935081</v>
+        <v>0.9569094676756436</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2181544591113891</v>
+        <v>0.2631538204032751</v>
       </c>
       <c r="M17">
-        <v>0.65939720948748</v>
+        <v>0.3349430400722326</v>
       </c>
       <c r="N17">
-        <v>0.5761576894458535</v>
+        <v>1.44478495230365</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.955248346971018</v>
+        <v>1.574237944253071</v>
       </c>
       <c r="C18">
-        <v>0.6909593787943322</v>
+        <v>0.3323293093892232</v>
       </c>
       <c r="D18">
-        <v>0.01907326220317174</v>
+        <v>0.03029263658092418</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.388045623534182</v>
+        <v>1.146657924580524</v>
       </c>
       <c r="G18">
-        <v>1.333285077453155</v>
+        <v>1.0141589532588</v>
       </c>
       <c r="H18">
-        <v>0.7391125267338055</v>
+        <v>0.9555329970589241</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2141331903606414</v>
+        <v>0.2624934787305335</v>
       </c>
       <c r="M18">
-        <v>0.6426660972137199</v>
+        <v>0.3307570851028956</v>
       </c>
       <c r="N18">
-        <v>0.5877526845005301</v>
+        <v>1.449343587068709</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.91968948036606</v>
+        <v>1.56481724711864</v>
       </c>
       <c r="C19">
-        <v>0.6859981540607123</v>
+        <v>0.3307929706941479</v>
       </c>
       <c r="D19">
-        <v>0.01909353527881308</v>
+        <v>0.030294249467957</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.377587395670915</v>
+        <v>1.144755324508395</v>
       </c>
       <c r="G19">
-        <v>1.322967343217471</v>
+        <v>1.012257842496155</v>
       </c>
       <c r="H19">
-        <v>0.7349260164265274</v>
+        <v>0.9550764075675033</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2127783569885651</v>
+        <v>0.26227203479975</v>
       </c>
       <c r="M19">
-        <v>0.6370154390365883</v>
+        <v>0.3293421995216761</v>
       </c>
       <c r="N19">
-        <v>0.5917081706635141</v>
+        <v>1.450897313788493</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.080008324456571</v>
+        <v>1.607245319206129</v>
       </c>
       <c r="C20">
-        <v>0.708348415160998</v>
+        <v>0.3376999954616338</v>
       </c>
       <c r="D20">
-        <v>0.01900321266182203</v>
+        <v>0.03028725567628499</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.424907709520639</v>
+        <v>1.153370485498655</v>
       </c>
       <c r="G20">
-        <v>1.369668575637093</v>
+        <v>1.020864228398978</v>
       </c>
       <c r="H20">
-        <v>0.7539063895140146</v>
+        <v>0.9571687166964864</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2189019351278034</v>
+        <v>0.2632770495481935</v>
       </c>
       <c r="M20">
-        <v>0.6625006497737758</v>
+        <v>0.3357189092735169</v>
       </c>
       <c r="N20">
-        <v>0.5740259168782496</v>
+        <v>1.443946122456726</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.624394983473906</v>
+        <v>1.750389521310467</v>
       </c>
       <c r="C21">
-        <v>0.7839261563779871</v>
+        <v>0.3607898764550157</v>
       </c>
       <c r="D21">
-        <v>0.0187165638957687</v>
+        <v>0.03026836809857159</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.588714256104168</v>
+        <v>1.183250808111225</v>
       </c>
       <c r="G21">
-        <v>1.531647623529068</v>
+        <v>1.050679499246627</v>
       </c>
       <c r="H21">
-        <v>0.8202958812474037</v>
+        <v>0.9648577788861417</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2399718701677074</v>
+        <v>0.2668023445702232</v>
       </c>
       <c r="M21">
-        <v>0.7492019536253594</v>
+        <v>0.3573110314669421</v>
       </c>
       <c r="N21">
-        <v>0.5167582881749002</v>
+        <v>1.421305258086866</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.9850853546954</v>
+        <v>1.844381948618775</v>
       </c>
       <c r="C22">
-        <v>0.833759316161661</v>
+        <v>0.3757933623300573</v>
       </c>
       <c r="D22">
-        <v>0.01854299748096366</v>
+        <v>0.0302594415147972</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.699768418495893</v>
+        <v>1.203479150442817</v>
       </c>
       <c r="G22">
-        <v>1.641724463296555</v>
+        <v>1.07083967643959</v>
       </c>
       <c r="H22">
-        <v>0.8658386463027341</v>
+        <v>0.970375656068228</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2541483471906361</v>
+        <v>0.269217029208221</v>
       </c>
       <c r="M22">
-        <v>0.8067744029990465</v>
+        <v>0.3715471779076722</v>
       </c>
       <c r="N22">
-        <v>0.4810292962893401</v>
+        <v>1.407041696290629</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.792087277025018</v>
+        <v>1.794176314444655</v>
       </c>
       <c r="C23">
-        <v>0.8071169815815722</v>
+        <v>0.3677936910548567</v>
       </c>
       <c r="D23">
-        <v>0.01863428638087328</v>
+        <v>0.03026389427145659</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.640103497382142</v>
+        <v>1.192618658076981</v>
       </c>
       <c r="G23">
-        <v>1.582559338580438</v>
+        <v>1.060017856833042</v>
       </c>
       <c r="H23">
-        <v>0.8413209245540543</v>
+        <v>0.967385499773286</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2465424690400511</v>
+        <v>0.2679181399651043</v>
       </c>
       <c r="M23">
-        <v>0.7759565680653893</v>
+        <v>0.3639377048627566</v>
       </c>
       <c r="N23">
-        <v>0.4999362163527117</v>
+        <v>1.414605525931535</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.071184310163346</v>
+        <v>1.604913142147723</v>
       </c>
       <c r="C24">
-        <v>0.7071194130207914</v>
+        <v>0.3373211338442843</v>
       </c>
       <c r="D24">
-        <v>0.01900811234600042</v>
+        <v>0.03028762234736604</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.422291968160422</v>
+        <v>1.152893874495291</v>
       </c>
       <c r="G24">
-        <v>1.367085950600369</v>
+        <v>1.020388235284059</v>
       </c>
       <c r="H24">
-        <v>0.7528547178008012</v>
+        <v>0.9570513405328711</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2185638823148821</v>
+        <v>0.2632212998586994</v>
       </c>
       <c r="M24">
-        <v>0.6610973413034174</v>
+        <v>0.3353681010963498</v>
       </c>
       <c r="N24">
-        <v>0.5749891293096674</v>
+        <v>1.444325165039284</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.310702500347873</v>
+        <v>1.402658305779141</v>
       </c>
       <c r="C25">
-        <v>0.6006524617633033</v>
+        <v>0.3040778817314731</v>
       </c>
       <c r="D25">
-        <v>0.01946293730998683</v>
+        <v>0.03032801400599006</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.201960764359285</v>
+        <v>1.113027423437018</v>
       </c>
       <c r="G25">
-        <v>1.150029052237272</v>
+        <v>0.9805087363982921</v>
       </c>
       <c r="H25">
-        <v>0.6654106501573267</v>
+        <v>0.9480106765633423</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1898975509689578</v>
+        <v>0.258630519019114</v>
       </c>
       <c r="M25">
-        <v>0.5404301545882788</v>
+        <v>0.3050866963113776</v>
       </c>
       <c r="N25">
-        <v>0.6626009539893554</v>
+        <v>1.478665332361262</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_138/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_138/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.255343993491408</v>
+        <v>2.761522397045269</v>
       </c>
       <c r="C2">
-        <v>0.2792743365243666</v>
+        <v>0.5229721257805977</v>
       </c>
       <c r="D2">
-        <v>0.03037062535724289</v>
+        <v>0.0198355092286544</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.086207185264144</v>
+        <v>1.049761327425031</v>
       </c>
       <c r="G2">
-        <v>0.9535733052840811</v>
+        <v>1.000714284664625</v>
       </c>
       <c r="H2">
-        <v>0.9431533495270514</v>
+        <v>0.6066347940029857</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2556585119273294</v>
+        <v>0.169859244070885</v>
       </c>
       <c r="M2">
-        <v>0.2832470116721026</v>
+        <v>0.453677936885228</v>
       </c>
       <c r="N2">
-        <v>1.505909118248321</v>
+        <v>0.7322193118428411</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.156498875534112</v>
+        <v>2.394304304573382</v>
       </c>
       <c r="C3">
-        <v>0.2622586660347963</v>
+        <v>0.4705579489109937</v>
       </c>
       <c r="D3">
-        <v>0.03040761311481965</v>
+        <v>0.02010891927494995</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.069595557748599</v>
+        <v>0.9517527008600837</v>
       </c>
       <c r="G3">
-        <v>0.9368146487658606</v>
+        <v>0.9048811219635127</v>
       </c>
       <c r="H3">
-        <v>0.9409780274821742</v>
+        <v>0.5697487308378157</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2538986823195444</v>
+        <v>0.1568424534121817</v>
       </c>
       <c r="M3">
-        <v>0.2687290893721581</v>
+        <v>0.3958918078283062</v>
       </c>
       <c r="N3">
-        <v>1.525592623028956</v>
+        <v>0.7823177674978323</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.096294837006042</v>
+        <v>2.170764081967263</v>
       </c>
       <c r="C4">
-        <v>0.2517087979723271</v>
+        <v>0.438426780434952</v>
       </c>
       <c r="D4">
-        <v>0.03043435331789723</v>
+        <v>0.02028642442388318</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.060163038330217</v>
+        <v>0.8937765940352875</v>
       </c>
       <c r="G4">
-        <v>0.9272567906128018</v>
+        <v>0.8483273412406476</v>
       </c>
       <c r="H4">
-        <v>0.9401913594203108</v>
+        <v>0.5483898838355685</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2529435610165365</v>
+        <v>0.1490971149152358</v>
       </c>
       <c r="M4">
-        <v>0.2599543572554595</v>
+        <v>0.3608184593293089</v>
       </c>
       <c r="N4">
-        <v>1.538279445516712</v>
+        <v>0.8144364858118265</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.071884028447982</v>
+        <v>2.080085917513372</v>
       </c>
       <c r="C5">
-        <v>0.2473839451689344</v>
+        <v>0.4253376313949104</v>
       </c>
       <c r="D5">
-        <v>0.0304462682179949</v>
+        <v>0.02036109382109075</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.056511545755995</v>
+        <v>0.8706587879725021</v>
       </c>
       <c r="G5">
-        <v>0.9235452452521855</v>
+        <v>0.825807852529806</v>
       </c>
       <c r="H5">
-        <v>0.9400086318976122</v>
+        <v>0.5399876477665515</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2525858957110145</v>
+        <v>0.1459987175043693</v>
       </c>
       <c r="M5">
-        <v>0.2564136629528591</v>
+        <v>0.3466162084278608</v>
       </c>
       <c r="N5">
-        <v>1.543600416714283</v>
+        <v>0.8278552485287309</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.067838059809617</v>
+        <v>2.065052067734939</v>
       </c>
       <c r="C6">
-        <v>0.2466642546530124</v>
+        <v>0.4231642312061865</v>
       </c>
       <c r="D6">
-        <v>0.03044830830861045</v>
+        <v>0.02037363133486814</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.055916818653714</v>
+        <v>0.8668494916161791</v>
       </c>
       <c r="G6">
-        <v>0.9229399996122254</v>
+        <v>0.8220989507297531</v>
       </c>
       <c r="H6">
-        <v>0.93998660985595</v>
+        <v>0.5386100513386509</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2525284119600784</v>
+        <v>0.1454876088666666</v>
       </c>
       <c r="M6">
-        <v>0.2558278534846963</v>
+        <v>0.3442630591786653</v>
       </c>
       <c r="N6">
-        <v>1.544493074733689</v>
+        <v>0.8301030441345603</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.095965126584417</v>
+        <v>2.169539567880236</v>
       </c>
       <c r="C7">
-        <v>0.2516505755360754</v>
+        <v>0.4382502477143646</v>
       </c>
       <c r="D7">
-        <v>0.03043450987835072</v>
+        <v>0.02028742209358825</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.060113015002273</v>
+        <v>0.893462820870738</v>
       </c>
       <c r="G7">
-        <v>0.9272059939460036</v>
+        <v>0.8480215653378451</v>
       </c>
       <c r="H7">
-        <v>0.9401883372312057</v>
+        <v>0.5482753756344323</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2529386096322312</v>
+        <v>0.1490550998400693</v>
       </c>
       <c r="M7">
-        <v>0.2599064641151472</v>
+        <v>0.3606265720556436</v>
       </c>
       <c r="N7">
-        <v>1.538350594862729</v>
+        <v>0.8146161337565898</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.221161209747265</v>
+        <v>2.634460761469541</v>
       </c>
       <c r="C8">
-        <v>0.2734285338881079</v>
+        <v>0.5048838277995173</v>
       </c>
       <c r="D8">
-        <v>0.0303825452009292</v>
+        <v>0.01992772554514488</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.08031994446803</v>
+        <v>1.015482558431586</v>
       </c>
       <c r="G8">
-        <v>0.9476425505016977</v>
+        <v>0.9671657329509316</v>
       </c>
       <c r="H8">
-        <v>0.942289230773099</v>
+        <v>0.5936348261510176</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.255025699867538</v>
+        <v>0.1653171551119428</v>
       </c>
       <c r="M8">
-        <v>0.2782123349818235</v>
+        <v>0.4336611609921164</v>
       </c>
       <c r="N8">
-        <v>1.512571146017941</v>
+        <v>0.7492043225113481</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.470537372940953</v>
+        <v>3.564952022713555</v>
       </c>
       <c r="C9">
-        <v>0.3153263499823424</v>
+        <v>0.6363750984052956</v>
       </c>
       <c r="D9">
-        <v>0.03031241879390834</v>
+        <v>0.01930347955449818</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.126060883041248</v>
+        <v>1.274462573640008</v>
       </c>
       <c r="G9">
-        <v>0.9935625832988535</v>
+        <v>1.221343532813734</v>
       </c>
       <c r="H9">
-        <v>0.9507757432033372</v>
+        <v>0.693916431343041</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2601134825331357</v>
+        <v>0.1993732163628863</v>
       </c>
       <c r="M9">
-        <v>0.3152158999925376</v>
+        <v>0.580709054476884</v>
       </c>
       <c r="N9">
-        <v>1.466793162016196</v>
+        <v>0.6322564564980393</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.656133259617434</v>
+        <v>4.265304109146598</v>
       </c>
       <c r="C10">
-        <v>0.3456212717600806</v>
+        <v>0.7341260547483159</v>
       </c>
       <c r="D10">
-        <v>0.03028002392071727</v>
+        <v>0.01890222050580803</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.163439847176505</v>
+        <v>1.480131623136486</v>
       </c>
       <c r="G10">
-        <v>1.030917199432707</v>
+        <v>1.424222839668204</v>
       </c>
       <c r="H10">
-        <v>0.9596899312896596</v>
+        <v>0.776174362829579</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2644586739366872</v>
+        <v>0.2260270539032661</v>
       </c>
       <c r="M10">
-        <v>0.3430802309991634</v>
+        <v>0.6919842460136394</v>
       </c>
       <c r="N10">
-        <v>1.436078705242718</v>
+        <v>0.5540628566338244</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.741088333008918</v>
+        <v>4.588847275310229</v>
       </c>
       <c r="C11">
-        <v>0.359298759115859</v>
+        <v>0.7790049427874237</v>
       </c>
       <c r="D11">
-        <v>0.0302693924154589</v>
+        <v>0.01873436284141761</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.181273884209745</v>
+        <v>1.577875634274392</v>
       </c>
       <c r="G11">
-        <v>1.048708303464139</v>
+        <v>1.520915395261966</v>
       </c>
       <c r="H11">
-        <v>0.9643308532807282</v>
+        <v>0.815872788207912</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2665674574186596</v>
+        <v>0.2385836912507955</v>
       </c>
       <c r="M11">
-        <v>0.3559046344989483</v>
+        <v>0.7435332139606459</v>
       </c>
       <c r="N11">
-        <v>1.422741283040908</v>
+        <v>0.5203723417326636</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.773334386584565</v>
+        <v>4.712196150608463</v>
       </c>
       <c r="C12">
-        <v>0.3644631866777104</v>
+        <v>0.7960734968633005</v>
       </c>
       <c r="D12">
-        <v>0.03026595309036395</v>
+        <v>0.01867313877958665</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.188147259696436</v>
+        <v>1.615567817122098</v>
       </c>
       <c r="G12">
-        <v>1.055561007239646</v>
+        <v>1.558246142473678</v>
       </c>
       <c r="H12">
-        <v>0.9661727660405859</v>
+        <v>0.8312716288223214</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2673850006329275</v>
+        <v>0.2434076450168305</v>
       </c>
       <c r="M12">
-        <v>0.3607823112222661</v>
+        <v>0.7632076206158089</v>
       </c>
       <c r="N12">
-        <v>1.417782208430914</v>
+        <v>0.5079041328618077</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.766386272892476</v>
+        <v>4.685591831814634</v>
       </c>
       <c r="C13">
-        <v>0.3633515994147558</v>
+        <v>0.7923939402004407</v>
       </c>
       <c r="D13">
-        <v>0.03026666777865827</v>
+        <v>0.01868621633007805</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.186661607524371</v>
+        <v>1.607418639790296</v>
       </c>
       <c r="G13">
-        <v>1.054080000739106</v>
+        <v>1.550173080213028</v>
       </c>
       <c r="H13">
-        <v>0.9657723150494064</v>
+        <v>0.8279382892467311</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2672080834915249</v>
+        <v>0.2423655325098366</v>
       </c>
       <c r="M13">
-        <v>0.3597308672005752</v>
+        <v>0.7589631942867499</v>
       </c>
       <c r="N13">
-        <v>1.418846159672348</v>
+        <v>0.5105761744509323</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.743739725633361</v>
+        <v>4.598977904670392</v>
       </c>
       <c r="C14">
-        <v>0.3597239391546339</v>
+        <v>0.7804076120077639</v>
       </c>
       <c r="D14">
-        <v>0.03026909772473374</v>
+        <v>0.01872927755005804</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.181836952053146</v>
+        <v>1.580962523409141</v>
       </c>
       <c r="G14">
-        <v>1.049269758137029</v>
+        <v>1.523971779489898</v>
       </c>
       <c r="H14">
-        <v>0.9644806936373982</v>
+        <v>0.8171320941324893</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2666343365932846</v>
+        <v>0.2389791352581767</v>
       </c>
       <c r="M14">
-        <v>0.3563054961722116</v>
+        <v>0.7451486308288366</v>
       </c>
       <c r="N14">
-        <v>1.422331461425853</v>
+        <v>0.5193406522071644</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.729877873248427</v>
+        <v>4.546036192037718</v>
       </c>
       <c r="C15">
-        <v>0.3574999465772919</v>
+        <v>0.7730757272320545</v>
       </c>
       <c r="D15">
-        <v>0.0302706624221436</v>
+        <v>0.01875596600324059</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.178897359430792</v>
+        <v>1.564848183386403</v>
       </c>
       <c r="G15">
-        <v>1.046338423952506</v>
+        <v>1.508018476088239</v>
       </c>
       <c r="H15">
-        <v>0.9637005498200324</v>
+        <v>0.8105618392537508</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2662853732300903</v>
+        <v>0.2369140760626181</v>
       </c>
       <c r="M15">
-        <v>0.3542101371746895</v>
+        <v>0.7367074946236514</v>
       </c>
       <c r="N15">
-        <v>1.424478234999494</v>
+        <v>0.524747474941079</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.650591815103837</v>
+        <v>4.244269252346953</v>
       </c>
       <c r="C16">
-        <v>0.3447253256847205</v>
+        <v>0.7312026166803776</v>
       </c>
       <c r="D16">
-        <v>0.0302808009972253</v>
+        <v>0.01891350448468643</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.162291110190083</v>
+        <v>1.473834426202515</v>
       </c>
       <c r="G16">
-        <v>1.029770641455116</v>
+        <v>1.417999187868844</v>
       </c>
       <c r="H16">
-        <v>0.9593984460956335</v>
+        <v>0.773629014525568</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2643235181509596</v>
+        <v>0.2252157143691988</v>
       </c>
       <c r="M16">
-        <v>0.342245116364829</v>
+        <v>0.688635790367087</v>
       </c>
       <c r="N16">
-        <v>1.436963130368402</v>
+        <v>0.5563040514040773</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.602087031405688</v>
+        <v>4.060493294365358</v>
       </c>
       <c r="C17">
-        <v>0.3368619100044157</v>
+        <v>0.7056301971920789</v>
       </c>
       <c r="D17">
-        <v>0.03028806939443385</v>
+        <v>0.01901405982495774</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.152316789738123</v>
+        <v>1.419124519038434</v>
       </c>
       <c r="G17">
-        <v>1.019811878610284</v>
+        <v>1.36395877410564</v>
       </c>
       <c r="H17">
-        <v>0.9569094676756436</v>
+        <v>0.7515816115935081</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2631538204032751</v>
+        <v>0.2181544591113322</v>
       </c>
       <c r="M17">
-        <v>0.3349430400722326</v>
+        <v>0.6593972094874943</v>
       </c>
       <c r="N17">
-        <v>1.44478495230365</v>
+        <v>0.5761576894458464</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.574237944253071</v>
+        <v>3.955248346971132</v>
       </c>
       <c r="C18">
-        <v>0.3323293093892232</v>
+        <v>0.690959378794588</v>
       </c>
       <c r="D18">
-        <v>0.03029263658092418</v>
+        <v>0.01907326220328898</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.146657924580524</v>
+        <v>1.388045623534182</v>
       </c>
       <c r="G18">
-        <v>1.0141589532588</v>
+        <v>1.333285077453212</v>
       </c>
       <c r="H18">
-        <v>0.9555329970589241</v>
+        <v>0.7391125267338055</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2624934787305335</v>
+        <v>0.2141331903606414</v>
       </c>
       <c r="M18">
-        <v>0.3307570851028956</v>
+        <v>0.6426660972137128</v>
       </c>
       <c r="N18">
-        <v>1.449343587068709</v>
+        <v>0.5877526845004688</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.56481724711864</v>
+        <v>3.919689480366117</v>
       </c>
       <c r="C19">
-        <v>0.3307929706941479</v>
+        <v>0.6859981540607407</v>
       </c>
       <c r="D19">
-        <v>0.030294249467957</v>
+        <v>0.01909353527882374</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.144755324508395</v>
+        <v>1.377587395670901</v>
       </c>
       <c r="G19">
-        <v>1.012257842496155</v>
+        <v>1.322967343217414</v>
       </c>
       <c r="H19">
-        <v>0.9550764075675033</v>
+        <v>0.7349260164265274</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.26227203479975</v>
+        <v>0.2127783569885935</v>
       </c>
       <c r="M19">
-        <v>0.3293421995216761</v>
+        <v>0.6370154390366025</v>
       </c>
       <c r="N19">
-        <v>1.450897313788493</v>
+        <v>0.5917081706635683</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.607245319206129</v>
+        <v>4.080008324456742</v>
       </c>
       <c r="C20">
-        <v>0.3376999954616338</v>
+        <v>0.7083484151612538</v>
       </c>
       <c r="D20">
-        <v>0.03028725567628499</v>
+        <v>0.01900321266181138</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.153370485498655</v>
+        <v>1.424907709520653</v>
       </c>
       <c r="G20">
-        <v>1.020864228398978</v>
+        <v>1.369668575637036</v>
       </c>
       <c r="H20">
-        <v>0.9571687166964864</v>
+        <v>0.7539063895138725</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2632770495481935</v>
+        <v>0.2189019351277182</v>
       </c>
       <c r="M20">
-        <v>0.3357189092735169</v>
+        <v>0.6625006497737616</v>
       </c>
       <c r="N20">
-        <v>1.443946122456726</v>
+        <v>0.5740259168782158</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.750389521310467</v>
+        <v>4.624394983473792</v>
       </c>
       <c r="C21">
-        <v>0.3607898764550157</v>
+        <v>0.7839261563782713</v>
       </c>
       <c r="D21">
-        <v>0.03026836809857159</v>
+        <v>0.01871656389578646</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.183250808111225</v>
+        <v>1.588714256104183</v>
       </c>
       <c r="G21">
-        <v>1.050679499246627</v>
+        <v>1.531647623528926</v>
       </c>
       <c r="H21">
-        <v>0.9648577788861417</v>
+        <v>0.8202958812474321</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2668023445702232</v>
+        <v>0.2399718701676932</v>
       </c>
       <c r="M21">
-        <v>0.3573110314669421</v>
+        <v>0.749201953625338</v>
       </c>
       <c r="N21">
-        <v>1.421305258086866</v>
+        <v>0.516758288174894</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.844381948618775</v>
+        <v>4.9850853546954</v>
       </c>
       <c r="C22">
-        <v>0.3757933623300573</v>
+        <v>0.8337593161618599</v>
       </c>
       <c r="D22">
-        <v>0.0302594415147972</v>
+        <v>0.01854299748085708</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.203479150442817</v>
+        <v>1.699768418495893</v>
       </c>
       <c r="G22">
-        <v>1.07083967643959</v>
+        <v>1.641724463296526</v>
       </c>
       <c r="H22">
-        <v>0.970375656068228</v>
+        <v>0.8658386463027341</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.269217029208221</v>
+        <v>0.2541483471906361</v>
       </c>
       <c r="M22">
-        <v>0.3715471779076722</v>
+        <v>0.8067744029990394</v>
       </c>
       <c r="N22">
-        <v>1.407041696290629</v>
+        <v>0.4810292962893499</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.794176314444655</v>
+        <v>4.792087277025018</v>
       </c>
       <c r="C23">
-        <v>0.3677936910548567</v>
+        <v>0.8071169815817143</v>
       </c>
       <c r="D23">
-        <v>0.03026389427145659</v>
+        <v>0.01863428638075604</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.192618658076981</v>
+        <v>1.640103497382171</v>
       </c>
       <c r="G23">
-        <v>1.060017856833042</v>
+        <v>1.582559338580438</v>
       </c>
       <c r="H23">
-        <v>0.967385499773286</v>
+        <v>0.8413209245540543</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2679181399651043</v>
+        <v>0.2465424690400368</v>
       </c>
       <c r="M23">
-        <v>0.3639377048627566</v>
+        <v>0.7759565680653964</v>
       </c>
       <c r="N23">
-        <v>1.414605525931535</v>
+        <v>0.4999362163527037</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.604913142147723</v>
+        <v>4.07118431016346</v>
       </c>
       <c r="C24">
-        <v>0.3373211338442843</v>
+        <v>0.7071194130206777</v>
       </c>
       <c r="D24">
-        <v>0.03028762234736604</v>
+        <v>0.01900811234608568</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.152893874495291</v>
+        <v>1.422291968160408</v>
       </c>
       <c r="G24">
-        <v>1.020388235284059</v>
+        <v>1.367085950600512</v>
       </c>
       <c r="H24">
-        <v>0.9570513405328711</v>
+        <v>0.7528547178008012</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2632212998586994</v>
+        <v>0.2185638823148963</v>
       </c>
       <c r="M24">
-        <v>0.3353681010963498</v>
+        <v>0.6610973413034458</v>
       </c>
       <c r="N24">
-        <v>1.444325165039284</v>
+        <v>0.5749891293096638</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.402658305779141</v>
+        <v>3.310702500347929</v>
       </c>
       <c r="C25">
-        <v>0.3040778817314731</v>
+        <v>0.6006524617631044</v>
       </c>
       <c r="D25">
-        <v>0.03032801400599006</v>
+        <v>0.01946293731005788</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.113027423437018</v>
+        <v>1.201960764359285</v>
       </c>
       <c r="G25">
-        <v>0.9805087363982921</v>
+        <v>1.150029052237358</v>
       </c>
       <c r="H25">
-        <v>0.9480106765633423</v>
+        <v>0.6654106501573267</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.258630519019114</v>
+        <v>0.1898975509689862</v>
       </c>
       <c r="M25">
-        <v>0.3050866963113776</v>
+        <v>0.5404301545882859</v>
       </c>
       <c r="N25">
-        <v>1.478665332361262</v>
+        <v>0.6626009539893465</v>
       </c>
       <c r="O25">
         <v>0</v>
